--- a/acm/acm-config-server-repo/rules/drools-assignment-rules.xlsx
+++ b/acm/acm-config-server-repo/rules/drools-assignment-rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandar.acevski\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793F7E3-7BB9-47AE-A9CC-497FF0A5C0F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6193D7-1779-4DB5-845B-920D573B5A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>RuleSet</t>
   </si>
@@ -207,6 +210,12 @@
     <t>Case File – Default group</t>
   </si>
   <si>
+    <t>Task - default access</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
     <t>File - default access</t>
   </si>
   <si>
@@ -294,6 +303,21 @@
     <t>Costsheet – Default owner</t>
   </si>
   <si>
+    <t>Consultation – Default assignee</t>
+  </si>
+  <si>
+    <t>CONSULTATION</t>
+  </si>
+  <si>
+    <t>Consultation – Default access</t>
+  </si>
+  <si>
+    <t>Consultation – Default group</t>
+  </si>
+  <si>
+    <t>Consultation - creator read access</t>
+  </si>
+  <si>
     <t>Object Types</t>
   </si>
   <si>
@@ -303,9 +327,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>TASK</t>
-  </si>
-  <si>
     <t>Owner's Supervisor</t>
   </si>
   <si>
@@ -313,21 +334,6 @@
   </si>
   <si>
     <t>ACCESS CONTROL LIST</t>
-  </si>
-  <si>
-    <t>Consultation - creator read access</t>
-  </si>
-  <si>
-    <t>Consultation – Default assignee</t>
-  </si>
-  <si>
-    <t>Consultation – Default access</t>
-  </si>
-  <si>
-    <t>Consultation – Default group</t>
-  </si>
-  <si>
-    <t>CONSULTATION</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1004,26 +1010,26 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="49.86328125" customWidth="1"/>
-    <col min="4" max="4" width="81.86328125" customWidth="1"/>
-    <col min="5" max="5" width="43.86328125" customWidth="1"/>
-    <col min="6" max="6" width="30.59765625" customWidth="1"/>
-    <col min="7" max="7" width="46.73046875" customWidth="1"/>
-    <col min="8" max="8" width="62.59765625" customWidth="1"/>
-    <col min="9" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -1033,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -1043,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
@@ -1053,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -1063,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
@@ -1073,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
@@ -1083,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -1093,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -1103,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="409.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
@@ -1113,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="7" t="s">
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7" t="s">
@@ -1135,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
@@ -1147,7 +1153,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
@@ -1169,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
@@ -1181,7 +1187,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10" t="s">
@@ -1203,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="85.5">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="17" t="s">
         <v>30</v>
@@ -1249,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>35</v>
@@ -1267,7 +1273,7 @@
       </c>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>38</v>
@@ -1285,7 +1291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>40</v>
@@ -1303,7 +1309,7 @@
       </c>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
         <v>41</v>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
         <v>44</v>
@@ -1341,7 +1347,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="1"/>
       <c r="B25" s="17" t="s">
         <v>45</v>
@@ -1359,7 +1365,7 @@
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>47</v>
@@ -1377,329 +1383,347 @@
       </c>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5">
+      <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="C29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5">
       <c r="B30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="21" t="s">
-        <v>43</v>
+      <c r="G30" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="28.5">
       <c r="B31" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.5">
+      <c r="B32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
+      <c r="C32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="17" t="s">
+      <c r="E32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:8">
       <c r="B33" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:8">
       <c r="B35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>36</v>
+      <c r="C35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19" t="s">
-        <v>37</v>
+      <c r="G35" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="B36" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>59</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="17" t="s">
+      <c r="E37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="19" t="s">
-        <v>37</v>
+      <c r="G38" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:8">
       <c r="B39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="C39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.5">
+      <c r="A40" s="1"/>
       <c r="B40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="B41" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="21" t="s">
-        <v>43</v>
+      <c r="G43" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19" t="s">
-        <v>50</v>
+      <c r="G44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G23" r:id="rId1" xr:uid="{81B387C2-D990-4BF2-A291-BDA61D801D77}"/>
     <hyperlink ref="G24" r:id="rId2" xr:uid="{2E733B3C-6EB8-4F3C-8402-8E487F574577}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{447F93E0-6DD6-4075-8A58-A4CF6F5B315D}"/>
-    <hyperlink ref="G34" r:id="rId4" xr:uid="{A7966A6F-DAFE-40B6-8B59-5C61AF02A947}"/>
-    <hyperlink ref="G37" r:id="rId5" xr:uid="{5DF8B77B-C500-4050-BB6C-D0B080A9BF59}"/>
-    <hyperlink ref="G43" r:id="rId6" xr:uid="{D24797F3-544D-471D-80A8-C5BC5FC0CAB4}"/>
+    <hyperlink ref="G31" r:id="rId3" xr:uid="{447F93E0-6DD6-4075-8A58-A4CF6F5B315D}"/>
+    <hyperlink ref="G35" r:id="rId4" xr:uid="{A7966A6F-DAFE-40B6-8B59-5C61AF02A947}"/>
+    <hyperlink ref="G38" r:id="rId5" xr:uid="{5DF8B77B-C500-4050-BB6C-D0B080A9BF59}"/>
+    <hyperlink ref="G44" r:id="rId6" xr:uid="{D24797F3-544D-471D-80A8-C5BC5FC0CAB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -1717,50 +1741,50 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1778,9 +1802,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
